--- a/data_convert.xlsx
+++ b/data_convert.xlsx
@@ -3,18 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7637FB05-697C-4F27-A006-31DC03A522DD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231F4DAB-9085-4450-9DB8-242551E059AB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataTrain" sheetId="2" r:id="rId1"/>
     <sheet name="dataTest" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="spliceDataTrain" sheetId="1" r:id="rId3"/>
+    <sheet name="spliceDataTest" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="ScrappingData_1" localSheetId="0">dataTrain!$A$1:$D$310</definedName>
     <definedName name="ScrappingDataTest" localSheetId="1">dataTest!$A$1:$A$176</definedName>
+    <definedName name="SpliceTextTest" localSheetId="3">spliceDataTest!$A$1:$D$59</definedName>
+    <definedName name="SpliceTextTrain" localSheetId="2">spliceDataTrain!$A$1:$D$41</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -46,11 +49,29 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="3" xr16:uid="{BCEA0DA1-1997-4864-B529-4119F72D43B4}" name="SpliceTextTest" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="A:\ChuongTrinhKy1Nam5\HeThongThoiGianThuc\AI-ProjectReviewFilm\SpliceTextTest.csv" space="1" consecutive="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" xr16:uid="{6167058D-34C3-4FCB-A8D6-ACCF6A5D94F2}" name="SpliceTextTrain" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="A:\ChuongTrinhKy1Nam5\HeThongThoiGianThuc\AI-ProjectReviewFilm\SpliceTextTrain.csv" space="1" consecutive="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="522">
   <si>
     <t>Ken Ochiai</t>
   </si>
@@ -1256,6 +1277,366 @@
   </si>
   <si>
     <t>Ham Tran</t>
+  </si>
+  <si>
+    <t>Nguyễn</t>
+  </si>
+  <si>
+    <t>Quang</t>
+  </si>
+  <si>
+    <t>Tuyến</t>
+  </si>
+  <si>
+    <t>Đỗ</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>Phan</t>
+  </si>
+  <si>
+    <t>Minh</t>
+  </si>
+  <si>
+    <t>Han</t>
+  </si>
+  <si>
+    <t>Sang-hee</t>
+  </si>
+  <si>
+    <t>Tsai</t>
+  </si>
+  <si>
+    <t>Lex</t>
+  </si>
+  <si>
+    <t>Đức</t>
+  </si>
+  <si>
+    <t>Thịnh</t>
+  </si>
+  <si>
+    <t>Hoàng</t>
+  </si>
+  <si>
+    <t>Anh</t>
+  </si>
+  <si>
+    <t>Dustin</t>
+  </si>
+  <si>
+    <t>Trần</t>
+  </si>
+  <si>
+    <t>Ngọc</t>
+  </si>
+  <si>
+    <t>Giàu</t>
+  </si>
+  <si>
+    <t>Hà</t>
+  </si>
+  <si>
+    <t>Dũng</t>
+  </si>
+  <si>
+    <t>Lâm</t>
+  </si>
+  <si>
+    <t>Tư</t>
+  </si>
+  <si>
+    <t>Võ</t>
+  </si>
+  <si>
+    <t>Thanh</t>
+  </si>
+  <si>
+    <t>Hòa</t>
+  </si>
+  <si>
+    <t>Văn</t>
+  </si>
+  <si>
+    <t>Công</t>
+  </si>
+  <si>
+    <t>Viễn</t>
+  </si>
+  <si>
+    <t>Trương</t>
+  </si>
+  <si>
+    <t>Lý</t>
+  </si>
+  <si>
+    <t>Hải</t>
+  </si>
+  <si>
+    <t>Vũ</t>
+  </si>
+  <si>
+    <t>Phượng</t>
+  </si>
+  <si>
+    <t>Robie</t>
+  </si>
+  <si>
+    <t>Trường</t>
+  </si>
+  <si>
+    <t>Hùng</t>
+  </si>
+  <si>
+    <t>Cao</t>
+  </si>
+  <si>
+    <t>Thúy</t>
+  </si>
+  <si>
+    <t>Nhi</t>
+  </si>
+  <si>
+    <t>Kawaii</t>
+  </si>
+  <si>
+    <t>Tuấn</t>
+  </si>
+  <si>
+    <t>Hứa</t>
+  </si>
+  <si>
+    <t>Vĩ</t>
+  </si>
+  <si>
+    <t>Vĩnh</t>
+  </si>
+  <si>
+    <t>Thuyên</t>
+  </si>
+  <si>
+    <t>Duy</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>Lương</t>
+  </si>
+  <si>
+    <t>Trung</t>
+  </si>
+  <si>
+    <t>Tín</t>
+  </si>
+  <si>
+    <t>Leon</t>
+  </si>
+  <si>
+    <t>Lê</t>
+  </si>
+  <si>
+    <t>Charlie</t>
+  </si>
+  <si>
+    <t>Thắng</t>
+  </si>
+  <si>
+    <t>Thành</t>
+  </si>
+  <si>
+    <t>Vinh</t>
+  </si>
+  <si>
+    <t>Đinh</t>
+  </si>
+  <si>
+    <t>Nhân</t>
+  </si>
+  <si>
+    <t>Kiên</t>
+  </si>
+  <si>
+    <t>Swann</t>
+  </si>
+  <si>
+    <t>Dubus</t>
+  </si>
+  <si>
+    <t>Victor</t>
+  </si>
+  <si>
+    <t>Roland</t>
+  </si>
+  <si>
+    <t>Cường</t>
+  </si>
+  <si>
+    <t>Ngô</t>
+  </si>
+  <si>
+    <t>Bảo</t>
+  </si>
+  <si>
+    <t>Ken</t>
+  </si>
+  <si>
+    <t>Ochiai</t>
+  </si>
+  <si>
+    <t>Hàm</t>
+  </si>
+  <si>
+    <t>Đình</t>
+  </si>
+  <si>
+    <t>Toàn</t>
+  </si>
+  <si>
+    <t>Joshua</t>
+  </si>
+  <si>
+    <t>Thiện</t>
+  </si>
+  <si>
+    <t>Nhất</t>
+  </si>
+  <si>
+    <t>Kiệt</t>
+  </si>
+  <si>
+    <t>Huỳnh</t>
+  </si>
+  <si>
+    <t>Khương</t>
+  </si>
+  <si>
+    <t>Hạnh</t>
+  </si>
+  <si>
+    <t>Cung</t>
+  </si>
+  <si>
+    <t>Le</t>
+  </si>
+  <si>
+    <t>Luk</t>
+  </si>
+  <si>
+    <t>Vân</t>
+  </si>
+  <si>
+    <t>Hwi</t>
+  </si>
+  <si>
+    <t>Sung</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>Hiếu</t>
+  </si>
+  <si>
+    <t>Romeo</t>
+  </si>
+  <si>
+    <t>Đoàn</t>
+  </si>
+  <si>
+    <t>Bùi</t>
+  </si>
+  <si>
+    <t>Yên</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Bình</t>
+  </si>
+  <si>
+    <t>Bá</t>
+  </si>
+  <si>
+    <t>Sĩ</t>
+  </si>
+  <si>
+    <t>Đăng</t>
+  </si>
+  <si>
+    <t>Huy</t>
+  </si>
+  <si>
+    <t>Kazuhisa</t>
+  </si>
+  <si>
+    <t>Yusa</t>
+  </si>
+  <si>
+    <t>Chu</t>
+  </si>
+  <si>
+    <t>Thượng</t>
+  </si>
+  <si>
+    <t>Tiến</t>
+  </si>
+  <si>
+    <t>Cát</t>
+  </si>
+  <si>
+    <t>Đông</t>
+  </si>
+  <si>
+    <t>Trực</t>
+  </si>
+  <si>
+    <t>Hữu</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Hiền</t>
+  </si>
+  <si>
+    <t>Trịnh</t>
+  </si>
+  <si>
+    <t>Thái</t>
+  </si>
+  <si>
+    <t>Thụy</t>
+  </si>
+  <si>
+    <t>Phúc</t>
+  </si>
+  <si>
+    <t>Cương</t>
+  </si>
+  <si>
+    <t>Ash</t>
+  </si>
+  <si>
+    <t>Mayfair</t>
+  </si>
+  <si>
+    <t>Lưu</t>
+  </si>
+  <si>
+    <t>Tạ</t>
+  </si>
+  <si>
+    <t>Nguyên</t>
+  </si>
+  <si>
+    <t>Hiệp</t>
+  </si>
+  <si>
+    <t>Phương</t>
   </si>
 </sst>
 </file>
@@ -1346,6 +1727,14 @@
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ScrappingDataTest" connectionId="2" xr16:uid="{8FCAEF10-1CCF-41FC-A3BE-D3404F33B5AF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="SpliceTextTrain" connectionId="4" xr16:uid="{14DD2BE0-DB78-4BD0-934D-7FF9966C0FF8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="SpliceTextTest" connectionId="3" xr16:uid="{0816BE63-B8AA-41E3-9B09-E19B729E68C7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1614,7 +2003,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D310"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -7899,12 +8288,992 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>413</v>
+      </c>
+      <c r="B6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B7" t="s">
+        <v>415</v>
+      </c>
+      <c r="C7" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>417</v>
+      </c>
+      <c r="B8" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>418</v>
+      </c>
+      <c r="B9" t="s">
+        <v>419</v>
+      </c>
+      <c r="C9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>402</v>
+      </c>
+      <c r="B10" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B11" t="s">
+        <v>403</v>
+      </c>
+      <c r="C11" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>423</v>
+      </c>
+      <c r="B12" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>425</v>
+      </c>
+      <c r="B13" t="s">
+        <v>426</v>
+      </c>
+      <c r="C13" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>428</v>
+      </c>
+      <c r="B14" t="s">
+        <v>429</v>
+      </c>
+      <c r="C14" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>431</v>
+      </c>
+      <c r="B15" t="s">
+        <v>403</v>
+      </c>
+      <c r="C15" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>432</v>
+      </c>
+      <c r="B16" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>434</v>
+      </c>
+      <c r="B17" t="s">
+        <v>419</v>
+      </c>
+      <c r="C17" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>436</v>
+      </c>
+      <c r="B18" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>402</v>
+      </c>
+      <c r="B19" t="s">
+        <v>419</v>
+      </c>
+      <c r="C19" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>439</v>
+      </c>
+      <c r="B20" t="s">
+        <v>440</v>
+      </c>
+      <c r="C20" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>442</v>
+      </c>
+      <c r="B21" t="s">
+        <v>402</v>
+      </c>
+      <c r="C21" t="s">
+        <v>443</v>
+      </c>
+      <c r="D21" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>444</v>
+      </c>
+      <c r="B22" t="s">
+        <v>445</v>
+      </c>
+      <c r="C22" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>446</v>
+      </c>
+      <c r="B23" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>448</v>
+      </c>
+      <c r="B24" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>450</v>
+      </c>
+      <c r="B25" t="s">
+        <v>451</v>
+      </c>
+      <c r="C25" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>453</v>
+      </c>
+      <c r="B26" t="s">
+        <v>403</v>
+      </c>
+      <c r="C26" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>455</v>
+      </c>
+      <c r="B27" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>456</v>
+      </c>
+      <c r="B28" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>425</v>
+      </c>
+      <c r="B29" t="s">
+        <v>426</v>
+      </c>
+      <c r="C29" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>402</v>
+      </c>
+      <c r="B30" t="s">
+        <v>457</v>
+      </c>
+      <c r="C30" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>459</v>
+      </c>
+      <c r="B31" t="s">
+        <v>443</v>
+      </c>
+      <c r="C31" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>418</v>
+      </c>
+      <c r="B32" t="s">
+        <v>460</v>
+      </c>
+      <c r="C32" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>462</v>
+      </c>
+      <c r="B33" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>402</v>
+      </c>
+      <c r="B34" t="s">
+        <v>415</v>
+      </c>
+      <c r="C34" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>464</v>
+      </c>
+      <c r="B35" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>465</v>
+      </c>
+      <c r="B36" t="s">
+        <v>402</v>
+      </c>
+      <c r="C36" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>402</v>
+      </c>
+      <c r="B37" t="s">
+        <v>413</v>
+      </c>
+      <c r="C37" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>466</v>
+      </c>
+      <c r="B38" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>468</v>
+      </c>
+      <c r="B39" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>469</v>
+      </c>
+      <c r="B40" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>471</v>
+      </c>
+      <c r="B41" t="s">
+        <v>418</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2447870E-3B43-443F-B6F4-337D4E529176}">
+  <dimension ref="A1:D58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>454</v>
+      </c>
+      <c r="B3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B5" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>454</v>
+      </c>
+      <c r="B6" t="s">
+        <v>428</v>
+      </c>
+      <c r="C6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>432</v>
+      </c>
+      <c r="B7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>478</v>
+      </c>
+      <c r="B8" t="s">
+        <v>443</v>
+      </c>
+      <c r="C8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>479</v>
+      </c>
+      <c r="B9" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>478</v>
+      </c>
+      <c r="B10" t="s">
+        <v>443</v>
+      </c>
+      <c r="C10" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>480</v>
+      </c>
+      <c r="B11" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>478</v>
+      </c>
+      <c r="B12" t="s">
+        <v>443</v>
+      </c>
+      <c r="C12" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>481</v>
+      </c>
+      <c r="B13" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>483</v>
+      </c>
+      <c r="B14" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>402</v>
+      </c>
+      <c r="B15" t="s">
+        <v>457</v>
+      </c>
+      <c r="C15" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>485</v>
+      </c>
+      <c r="B16" t="s">
+        <v>486</v>
+      </c>
+      <c r="C16" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>488</v>
+      </c>
+      <c r="B17" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>406</v>
+      </c>
+      <c r="B18" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>491</v>
+      </c>
+      <c r="B19" t="s">
+        <v>406</v>
+      </c>
+      <c r="C19" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>493</v>
+      </c>
+      <c r="B20" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>467</v>
+      </c>
+      <c r="B21" t="s">
+        <v>426</v>
+      </c>
+      <c r="C21" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>407</v>
+      </c>
+      <c r="B22" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>418</v>
+      </c>
+      <c r="B23" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>402</v>
+      </c>
+      <c r="B24" t="s">
+        <v>495</v>
+      </c>
+      <c r="C24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>467</v>
+      </c>
+      <c r="B25" t="s">
+        <v>426</v>
+      </c>
+      <c r="C25" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>496</v>
+      </c>
+      <c r="B26" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>402</v>
+      </c>
+      <c r="B27" t="s">
+        <v>403</v>
+      </c>
+      <c r="C27" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>467</v>
+      </c>
+      <c r="B28" t="s">
+        <v>426</v>
+      </c>
+      <c r="C28" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>499</v>
+      </c>
+      <c r="B29" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>501</v>
+      </c>
+      <c r="B30" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>491</v>
+      </c>
+      <c r="B31" t="s">
+        <v>451</v>
+      </c>
+      <c r="C31" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>418</v>
+      </c>
+      <c r="B32" t="s">
+        <v>502</v>
+      </c>
+      <c r="C32" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>402</v>
+      </c>
+      <c r="B33" t="s">
+        <v>503</v>
+      </c>
+      <c r="C33" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>402</v>
+      </c>
+      <c r="B34" t="s">
+        <v>403</v>
+      </c>
+      <c r="C34" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>504</v>
+      </c>
+      <c r="B35" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>464</v>
+      </c>
+      <c r="B36" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>478</v>
+      </c>
+      <c r="B37" t="s">
+        <v>443</v>
+      </c>
+      <c r="C37" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>402</v>
+      </c>
+      <c r="B38" t="s">
+        <v>403</v>
+      </c>
+      <c r="C38" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>450</v>
+      </c>
+      <c r="B39" t="s">
+        <v>472</v>
+      </c>
+      <c r="C39" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>478</v>
+      </c>
+      <c r="B40" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>402</v>
+      </c>
+      <c r="B41" t="s">
+        <v>415</v>
+      </c>
+      <c r="C41" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>506</v>
+      </c>
+      <c r="B42" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>402</v>
+      </c>
+      <c r="B43" t="s">
+        <v>507</v>
+      </c>
+      <c r="C43" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>402</v>
+      </c>
+      <c r="B44" t="s">
+        <v>403</v>
+      </c>
+      <c r="C44" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>508</v>
+      </c>
+      <c r="B45" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>510</v>
+      </c>
+      <c r="B46" t="s">
+        <v>472</v>
+      </c>
+      <c r="C46" t="s">
+        <v>454</v>
+      </c>
+      <c r="D46" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>459</v>
+      </c>
+      <c r="B47" t="s">
+        <v>511</v>
+      </c>
+      <c r="C47" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>483</v>
+      </c>
+      <c r="B48" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>402</v>
+      </c>
+      <c r="B49" t="s">
+        <v>513</v>
+      </c>
+      <c r="C49" t="s">
+        <v>498</v>
+      </c>
+      <c r="D49" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>495</v>
+      </c>
+      <c r="B50" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>515</v>
+      </c>
+      <c r="B51" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>402</v>
+      </c>
+      <c r="B52" t="s">
+        <v>498</v>
+      </c>
+      <c r="C52" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>468</v>
+      </c>
+      <c r="B53" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>517</v>
+      </c>
+      <c r="B54" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>413</v>
+      </c>
+      <c r="B55" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>518</v>
+      </c>
+      <c r="B56" t="s">
+        <v>519</v>
+      </c>
+      <c r="C56" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>402</v>
+      </c>
+      <c r="B57" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>466</v>
+      </c>
+      <c r="B58" t="s">
+        <v>467</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data_convert.xlsx
+++ b/data_convert.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231F4DAB-9085-4450-9DB8-242551E059AB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44CC887-87B2-4646-B191-E95CE84E5A5B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataTrain" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="ScrappingData_1" localSheetId="0">dataTrain!$A$1:$D$310</definedName>
-    <definedName name="ScrappingDataTest" localSheetId="1">dataTest!$A$1:$A$176</definedName>
+    <definedName name="ScrappingDataTest" localSheetId="1">dataTest!#REF!</definedName>
     <definedName name="SpliceTextTest" localSheetId="3">spliceDataTest!$A$1:$D$59</definedName>
     <definedName name="SpliceTextTrain" localSheetId="2">spliceDataTrain!$A$1:$D$41</definedName>
   </definedNames>
@@ -40,16 +40,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{B877C5B6-15C5-4070-84C3-8D05EC61D310}" name="ScrappingDataTest" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="65001" sourceFile="A:\ChuongTrinhKy1Nam5\HeThongThoiGianThuc\ProjectFilmReview\ScrappingDataTest.csv" comma="1">
-      <textFields count="3">
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="3" xr16:uid="{BCEA0DA1-1997-4864-B529-4119F72D43B4}" name="SpliceTextTest" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="2" xr16:uid="{BCEA0DA1-1997-4864-B529-4119F72D43B4}" name="SpliceTextTest" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="A:\ChuongTrinhKy1Nam5\HeThongThoiGianThuc\AI-ProjectReviewFilm\SpliceTextTest.csv" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
@@ -58,7 +49,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" xr16:uid="{6167058D-34C3-4FCB-A8D6-ACCF6A5D94F2}" name="SpliceTextTrain" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="3" xr16:uid="{6167058D-34C3-4FCB-A8D6-ACCF6A5D94F2}" name="SpliceTextTrain" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="A:\ChuongTrinhKy1Nam5\HeThongThoiGianThuc\AI-ProjectReviewFilm\SpliceTextTrain.csv" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
@@ -71,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="521">
   <si>
     <t>Ken Ochiai</t>
   </si>
@@ -263,9 +254,6 @@
   </si>
   <si>
     <t>jason ninh cao</t>
-  </si>
-  <si>
-    <t>Trương Ngọc Ánh</t>
   </si>
   <si>
     <t>Luong Dinh Dung</t>
@@ -1726,15 +1714,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ScrappingDataTest" connectionId="2" xr16:uid="{8FCAEF10-1CCF-41FC-A3BE-D3404F33B5AF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="SpliceTextTrain" connectionId="3" xr16:uid="{14DD2BE0-DB78-4BD0-934D-7FF9966C0FF8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="SpliceTextTrain" connectionId="4" xr16:uid="{14DD2BE0-DB78-4BD0-934D-7FF9966C0FF8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="SpliceTextTest" connectionId="3" xr16:uid="{0816BE63-B8AA-41E3-9B09-E19B729E68C7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="SpliceTextTest" connectionId="2" xr16:uid="{0816BE63-B8AA-41E3-9B09-E19B729E68C7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2023,10 +2007,10 @@
         <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2037,10 +2021,10 @@
         <v>0.8</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2051,10 +2035,10 @@
         <v>0.8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2065,10 +2049,10 @@
         <v>0.8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2079,10 +2063,10 @@
         <v>0.8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2093,10 +2077,10 @@
         <v>0.8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2107,10 +2091,10 @@
         <v>0.8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2121,10 +2105,10 @@
         <v>0.8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2135,10 +2119,10 @@
         <v>0.79</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2149,10 +2133,10 @@
         <v>0.79</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2163,10 +2147,10 @@
         <v>0.79</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2177,10 +2161,10 @@
         <v>0.79</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2191,10 +2175,10 @@
         <v>0.79</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2205,10 +2189,10 @@
         <v>0.79</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2219,10 +2203,10 @@
         <v>0.79</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2233,10 +2217,10 @@
         <v>0.79</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2247,10 +2231,10 @@
         <v>0.79</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2261,7 +2245,7 @@
         <v>0.79</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>44</v>
@@ -2278,7 +2262,7 @@
         <v>43</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2292,7 +2276,7 @@
         <v>43</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2306,7 +2290,7 @@
         <v>43</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2320,7 +2304,7 @@
         <v>43</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2387,7 +2371,7 @@
         <v>0.5</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>37</v>
@@ -2401,10 +2385,10 @@
         <v>0.5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2415,7 +2399,7 @@
         <v>0.5</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>36</v>
@@ -2429,7 +2413,7 @@
         <v>0.5</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>35</v>
@@ -2443,10 +2427,10 @@
         <v>0.5</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2457,10 +2441,10 @@
         <v>0.5</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2471,7 +2455,7 @@
         <v>0.5</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>34</v>
@@ -2485,7 +2469,7 @@
         <v>0.5</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>33</v>
@@ -2499,10 +2483,10 @@
         <v>0.91</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2513,10 +2497,10 @@
         <v>0.91</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2527,10 +2511,10 @@
         <v>0.91</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2541,10 +2525,10 @@
         <v>0.91</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2555,7 +2539,7 @@
         <v>0.91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>32</v>
@@ -2569,10 +2553,10 @@
         <v>0.88</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2583,10 +2567,10 @@
         <v>0.88</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2597,10 +2581,10 @@
         <v>0.88</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2611,10 +2595,10 @@
         <v>0.88</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2625,7 +2609,7 @@
         <v>0.88</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>12</v>
@@ -2639,10 +2623,10 @@
         <v>0.88</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2653,10 +2637,10 @@
         <v>0.82</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2667,7 +2651,7 @@
         <v>0.82</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>31</v>
@@ -2681,10 +2665,10 @@
         <v>0.82</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2695,10 +2679,10 @@
         <v>0.82</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2709,7 +2693,7 @@
         <v>0.82</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>30</v>
@@ -2723,10 +2707,10 @@
         <v>0.82</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2737,10 +2721,10 @@
         <v>0.82</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2751,10 +2735,10 @@
         <v>0.82</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2765,10 +2749,10 @@
         <v>0.82</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2779,10 +2763,10 @@
         <v>0.6</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2793,10 +2777,10 @@
         <v>0.6</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2807,7 +2791,7 @@
         <v>0.6</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>29</v>
@@ -2821,10 +2805,10 @@
         <v>0.6</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2835,10 +2819,10 @@
         <v>0.6</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2849,10 +2833,10 @@
         <v>0.6</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2863,10 +2847,10 @@
         <v>0.6</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2877,10 +2861,10 @@
         <v>0.6</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2891,7 +2875,7 @@
         <v>0.6</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>28</v>
@@ -2905,10 +2889,10 @@
         <v>0.6</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2919,10 +2903,10 @@
         <v>0.6</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -2933,10 +2917,10 @@
         <v>0.6</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -2947,10 +2931,10 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2961,10 +2945,10 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2975,10 +2959,10 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2989,10 +2973,10 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -3003,10 +2987,10 @@
         <v>0.93</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -3017,10 +3001,10 @@
         <v>0.93</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -3031,10 +3015,10 @@
         <v>0.93</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -3045,10 +3029,10 @@
         <v>0.93</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -3059,10 +3043,10 @@
         <v>0.93</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -3073,10 +3057,10 @@
         <v>0.93</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -3087,10 +3071,10 @@
         <v>0.93</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -3101,10 +3085,10 @@
         <v>0.93</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -3115,10 +3099,10 @@
         <v>0.93</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -3129,10 +3113,10 @@
         <v>0.93</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -3143,10 +3127,10 @@
         <v>0.93</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -3157,10 +3141,10 @@
         <v>0.93</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -3171,10 +3155,10 @@
         <v>0.82</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -3185,10 +3169,10 @@
         <v>0.82</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -3199,10 +3183,10 @@
         <v>0.82</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -3213,10 +3197,10 @@
         <v>0.82</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -3227,10 +3211,10 @@
         <v>0.82</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -3241,10 +3225,10 @@
         <v>0.82</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -3255,10 +3239,10 @@
         <v>0.82</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -3269,10 +3253,10 @@
         <v>0.82</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -3283,10 +3267,10 @@
         <v>0.82</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -3297,10 +3281,10 @@
         <v>0.82</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -3311,10 +3295,10 @@
         <v>0.82</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -3325,10 +3309,10 @@
         <v>0.82</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -3339,10 +3323,10 @@
         <v>0.47</v>
       </c>
       <c r="C95" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -3353,10 +3337,10 @@
         <v>0.47</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -3367,10 +3351,10 @@
         <v>0.47</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -3381,10 +3365,10 @@
         <v>0.47</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -3395,10 +3379,10 @@
         <v>0.47</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -3409,10 +3393,10 @@
         <v>0.5</v>
       </c>
       <c r="C100" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -3423,10 +3407,10 @@
         <v>0.5</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -3437,7 +3421,7 @@
         <v>0.5</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>27</v>
@@ -3451,10 +3435,10 @@
         <v>0.5</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3465,10 +3449,10 @@
         <v>0.5</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -3479,10 +3463,10 @@
         <v>0.5</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -3493,10 +3477,10 @@
         <v>0.5</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -3507,10 +3491,10 @@
         <v>0.5</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -3521,10 +3505,10 @@
         <v>0.81</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -3535,10 +3519,10 @@
         <v>0.81</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -3549,10 +3533,10 @@
         <v>0.81</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -3563,10 +3547,10 @@
         <v>0.81</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -3577,7 +3561,7 @@
         <v>0.81</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>26</v>
@@ -3591,10 +3575,10 @@
         <v>0.81</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -3605,10 +3589,10 @@
         <v>0.81</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -3619,10 +3603,10 @@
         <v>0.81</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -3633,10 +3617,10 @@
         <v>0.81</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -3647,10 +3631,10 @@
         <v>0.81</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -3661,10 +3645,10 @@
         <v>0.81</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -3675,10 +3659,10 @@
         <v>0.81</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3689,10 +3673,10 @@
         <v>0.81</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -3703,10 +3687,10 @@
         <v>0.81</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -3717,10 +3701,10 @@
         <v>0.81</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -3731,10 +3715,10 @@
         <v>0.81</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -3745,10 +3729,10 @@
         <v>0.81</v>
       </c>
       <c r="C124" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D124" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -3759,10 +3743,10 @@
         <v>0.81</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -3773,10 +3757,10 @@
         <v>0.81</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -3787,10 +3771,10 @@
         <v>0.81</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -3801,10 +3785,10 @@
         <v>0.81</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -3815,10 +3799,10 @@
         <v>0.74</v>
       </c>
       <c r="C129" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D129" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -3829,10 +3813,10 @@
         <v>0.74</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -3843,10 +3827,10 @@
         <v>0.74</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -3857,10 +3841,10 @@
         <v>0.74</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -3871,7 +3855,7 @@
         <v>0.74</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>25</v>
@@ -3885,10 +3869,10 @@
         <v>0.74</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -3899,10 +3883,10 @@
         <v>0.74</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -3913,10 +3897,10 @@
         <v>0.74</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -3927,10 +3911,10 @@
         <v>0.74</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -3941,10 +3925,10 @@
         <v>0.74</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -3955,10 +3939,10 @@
         <v>0.5</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -3969,10 +3953,10 @@
         <v>0.5</v>
       </c>
       <c r="C140" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D140" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -3983,10 +3967,10 @@
         <v>0.5</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -3997,10 +3981,10 @@
         <v>0.5</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -4011,10 +3995,10 @@
         <v>0.5</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -4025,10 +4009,10 @@
         <v>0.5</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -4039,10 +4023,10 @@
         <v>0.5</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -4053,10 +4037,10 @@
         <v>0.5</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -4067,10 +4051,10 @@
         <v>0.5</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -4081,10 +4065,10 @@
         <v>0.5</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -4095,10 +4079,10 @@
         <v>0.87</v>
       </c>
       <c r="C149" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D149" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -4109,7 +4093,7 @@
         <v>0.87</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>24</v>
@@ -4123,7 +4107,7 @@
         <v>0.87</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>23</v>
@@ -4137,10 +4121,10 @@
         <v>0.87</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -4151,10 +4135,10 @@
         <v>0.87</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -4165,7 +4149,7 @@
         <v>0.87</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>22</v>
@@ -4179,7 +4163,7 @@
         <v>0.87</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>21</v>
@@ -4193,7 +4177,7 @@
         <v>0.87</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>20</v>
@@ -4207,10 +4191,10 @@
         <v>0.87</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -4221,10 +4205,10 @@
         <v>0.87</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -4235,7 +4219,7 @@
         <v>0.87</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>19</v>
@@ -4249,10 +4233,10 @@
         <v>0.87</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -4263,10 +4247,10 @@
         <v>0.68</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -4277,10 +4261,10 @@
         <v>0.68</v>
       </c>
       <c r="C162" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D162" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -4291,10 +4275,10 @@
         <v>0.68</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -4305,10 +4289,10 @@
         <v>0.68</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -4319,7 +4303,7 @@
         <v>0.68</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>18</v>
@@ -4333,10 +4317,10 @@
         <v>0.68</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -4347,10 +4331,10 @@
         <v>0.68</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -4361,10 +4345,10 @@
         <v>0.68</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -4375,10 +4359,10 @@
         <v>0.68</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -4389,10 +4373,10 @@
         <v>0.68</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -4403,10 +4387,10 @@
         <v>0.68</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -4417,10 +4401,10 @@
         <v>0.83</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -4431,10 +4415,10 @@
         <v>0.83</v>
       </c>
       <c r="C173" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D173" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -4445,10 +4429,10 @@
         <v>0.83</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -4459,10 +4443,10 @@
         <v>0.83</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -4473,10 +4457,10 @@
         <v>0.83</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -4487,10 +4471,10 @@
         <v>0.83</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -4501,10 +4485,10 @@
         <v>0.83</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -4515,10 +4499,10 @@
         <v>0.25</v>
       </c>
       <c r="C179" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D179" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -4529,10 +4513,10 @@
         <v>0.25</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -4543,10 +4527,10 @@
         <v>0.25</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -4557,10 +4541,10 @@
         <v>0.25</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -4571,10 +4555,10 @@
         <v>0.25</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -4588,7 +4572,7 @@
         <v>17</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -4602,7 +4586,7 @@
         <v>17</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -4616,7 +4600,7 @@
         <v>17</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -4630,7 +4614,7 @@
         <v>17</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -4644,7 +4628,7 @@
         <v>17</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -4658,7 +4642,7 @@
         <v>17</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -4672,7 +4656,7 @@
         <v>17</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -4683,7 +4667,7 @@
         <v>0.73</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>16</v>
@@ -4697,7 +4681,7 @@
         <v>0.73</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>15</v>
@@ -4711,7 +4695,7 @@
         <v>0.73</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>14</v>
@@ -4725,10 +4709,10 @@
         <v>0.73</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -4739,7 +4723,7 @@
         <v>1</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>13</v>
@@ -4753,10 +4737,10 @@
         <v>1</v>
       </c>
       <c r="C196" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D196" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -4767,10 +4751,10 @@
         <v>1</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -4781,10 +4765,10 @@
         <v>1</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -4795,10 +4779,10 @@
         <v>1</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -4809,10 +4793,10 @@
         <v>0.95</v>
       </c>
       <c r="C200" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D200" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -4823,10 +4807,10 @@
         <v>0.95</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -4837,10 +4821,10 @@
         <v>0.95</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -4851,10 +4835,10 @@
         <v>0.95</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -4865,10 +4849,10 @@
         <v>0.95</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -4879,10 +4863,10 @@
         <v>0.95</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -4893,10 +4877,10 @@
         <v>0.95</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -4907,10 +4891,10 @@
         <v>0.95</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -4921,7 +4905,7 @@
         <v>0.92</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>13</v>
@@ -4935,10 +4919,10 @@
         <v>0.92</v>
       </c>
       <c r="C209" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D209" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -4949,10 +4933,10 @@
         <v>0.92</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -4963,10 +4947,10 @@
         <v>0.92</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -4977,10 +4961,10 @@
         <v>0.92</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -4991,10 +4975,10 @@
         <v>0.92</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -5005,7 +4989,7 @@
         <v>0.92</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>12</v>
@@ -5019,10 +5003,10 @@
         <v>0.93</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -5033,10 +5017,10 @@
         <v>0.93</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -5047,10 +5031,10 @@
         <v>0.93</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -5061,10 +5045,10 @@
         <v>0.93</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -5075,10 +5059,10 @@
         <v>0.93</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -5089,10 +5073,10 @@
         <v>0.93</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -5103,10 +5087,10 @@
         <v>0.93</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -5117,10 +5101,10 @@
         <v>0.93</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -5131,10 +5115,10 @@
         <v>0.93</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -5145,10 +5129,10 @@
         <v>0.93</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -5159,10 +5143,10 @@
         <v>0.91</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -5173,10 +5157,10 @@
         <v>0.91</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -5187,10 +5171,10 @@
         <v>0.91</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -5201,10 +5185,10 @@
         <v>0.91</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -5215,10 +5199,10 @@
         <v>0.91</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -5229,10 +5213,10 @@
         <v>0.91</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -5243,10 +5227,10 @@
         <v>0.91</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -5257,10 +5241,10 @@
         <v>0.91</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -5271,10 +5255,10 @@
         <v>0.91</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -5285,10 +5269,10 @@
         <v>0.91</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -5299,10 +5283,10 @@
         <v>0.91</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -5313,10 +5297,10 @@
         <v>0.91</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -5327,7 +5311,7 @@
         <v>0.91</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>11</v>
@@ -5341,10 +5325,10 @@
         <v>0.91</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -5355,10 +5339,10 @@
         <v>0.91</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -5369,7 +5353,7 @@
         <v>0.1</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>10</v>
@@ -5383,10 +5367,10 @@
         <v>0.1</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -5397,10 +5381,10 @@
         <v>0.1</v>
       </c>
       <c r="C242" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D242" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="D242" s="1" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -5411,7 +5395,7 @@
         <v>0.1</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>9</v>
@@ -5425,10 +5409,10 @@
         <v>0.1</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -5439,10 +5423,10 @@
         <v>0.1</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -5453,10 +5437,10 @@
         <v>0.77</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -5467,10 +5451,10 @@
         <v>0.77</v>
       </c>
       <c r="C247" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D247" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="D247" s="1" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -5481,10 +5465,10 @@
         <v>0.77</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -5512,7 +5496,7 @@
         <v>7</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -5523,10 +5507,10 @@
         <v>0.67</v>
       </c>
       <c r="C251" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D251" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -5537,10 +5521,10 @@
         <v>0.67</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -5551,10 +5535,10 @@
         <v>0.67</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -5565,7 +5549,7 @@
         <v>0.67</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>6</v>
@@ -5579,10 +5563,10 @@
         <v>0.67</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -5593,10 +5577,10 @@
         <v>0.67</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -5607,10 +5591,10 @@
         <v>0.67</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -5621,10 +5605,10 @@
         <v>0.67</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -5635,10 +5619,10 @@
         <v>0.67</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -5649,10 +5633,10 @@
         <v>0.67</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -5663,10 +5647,10 @@
         <v>0.67</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -5677,10 +5661,10 @@
         <v>0.67</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -5691,10 +5675,10 @@
         <v>0.67</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -5705,10 +5689,10 @@
         <v>0.67</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -5719,10 +5703,10 @@
         <v>0.67</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -5733,7 +5717,7 @@
         <v>0.67</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>5</v>
@@ -5747,7 +5731,7 @@
         <v>0.83</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>4</v>
@@ -5761,10 +5745,10 @@
         <v>0.83</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -5775,10 +5759,10 @@
         <v>0.83</v>
       </c>
       <c r="C269" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D269" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="D269" s="1" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -5789,10 +5773,10 @@
         <v>0.83</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -5803,10 +5787,10 @@
         <v>0.83</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -5817,10 +5801,10 @@
         <v>0.5</v>
       </c>
       <c r="C272" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="D272" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="D272" s="1" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -5831,10 +5815,10 @@
         <v>0.5</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -5845,10 +5829,10 @@
         <v>0.5</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -5859,10 +5843,10 @@
         <v>0.5</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -5873,10 +5857,10 @@
         <v>0.5</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -5887,10 +5871,10 @@
         <v>0.5</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -5901,10 +5885,10 @@
         <v>0.5</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -5915,10 +5899,10 @@
         <v>0.5</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -5929,10 +5913,10 @@
         <v>0.5</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -5943,10 +5927,10 @@
         <v>0.5</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -5957,10 +5941,10 @@
         <v>0.5</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -5971,10 +5955,10 @@
         <v>0.5</v>
       </c>
       <c r="C283" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D283" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="D283" s="1" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -5985,7 +5969,7 @@
         <v>0.5</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>3</v>
@@ -5999,10 +5983,10 @@
         <v>0.5</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -6013,7 +5997,7 @@
         <v>0.5</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>2</v>
@@ -6027,10 +6011,10 @@
         <v>0.5</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -6041,10 +6025,10 @@
         <v>0.5</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -6058,7 +6042,7 @@
         <v>1</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -6072,7 +6056,7 @@
         <v>1</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -6086,7 +6070,7 @@
         <v>1</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -6100,7 +6084,7 @@
         <v>1</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -6114,7 +6098,7 @@
         <v>1</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -6128,7 +6112,7 @@
         <v>1</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -6142,7 +6126,7 @@
         <v>1</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -6156,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -6170,7 +6154,7 @@
         <v>0</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -6184,7 +6168,7 @@
         <v>0</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -6198,7 +6182,7 @@
         <v>0</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -6212,7 +6196,7 @@
         <v>0</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -6226,7 +6210,7 @@
         <v>0</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -6240,7 +6224,7 @@
         <v>0</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -6254,7 +6238,7 @@
         <v>0</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -6268,7 +6252,7 @@
         <v>0</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -6282,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -6296,7 +6280,7 @@
         <v>0</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -6310,7 +6294,7 @@
         <v>0</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -6324,7 +6308,7 @@
         <v>0</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -6338,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -6349,10 +6333,10 @@
         <v>0.5</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -6364,1919 +6348,1398 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B36261E1-C104-4EC5-98A6-C79B91047A00}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:B178"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>209</v>
       </c>
       <c r="B1" t="s">
         <v>210</v>
       </c>
-      <c r="C1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>64</v>
       </c>
       <c r="B2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>65</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>69</v>
-      </c>
-      <c r="C40" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>70</v>
       </c>
-      <c r="C43" t="s">
+      <c r="B61" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>72</v>
-      </c>
-      <c r="C45" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>72</v>
-      </c>
-      <c r="C46" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>72</v>
-      </c>
-      <c r="C48" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>72</v>
-      </c>
-      <c r="C49" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>72</v>
-      </c>
-      <c r="C50" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>72</v>
-      </c>
-      <c r="C52" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>72</v>
-      </c>
-      <c r="C53" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>72</v>
-      </c>
-      <c r="C54" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>72</v>
-      </c>
-      <c r="C55" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>72</v>
-      </c>
-      <c r="C56" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>73</v>
-      </c>
-      <c r="C57" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>73</v>
-      </c>
-      <c r="C58" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>73</v>
-      </c>
-      <c r="C59" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>73</v>
-      </c>
-      <c r="C60" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>71</v>
-      </c>
-      <c r="C61" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>52</v>
       </c>
-      <c r="C62" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>55</v>
+      </c>
+      <c r="B72" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>78</v>
+      </c>
+      <c r="B81" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>78</v>
+      </c>
+      <c r="B82" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>78</v>
+      </c>
+      <c r="B83" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>79</v>
+      </c>
+      <c r="B84" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>79</v>
+      </c>
+      <c r="B85" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>43</v>
+      </c>
+      <c r="B86" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>43</v>
+      </c>
+      <c r="B87" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>43</v>
+      </c>
+      <c r="B88" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>43</v>
+      </c>
+      <c r="B89" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>43</v>
+      </c>
+      <c r="B90" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>43</v>
+      </c>
+      <c r="B91" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>80</v>
+      </c>
+      <c r="B92" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>79</v>
+      </c>
+      <c r="B93" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>81</v>
+      </c>
+      <c r="B94" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>82</v>
+      </c>
+      <c r="B95" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>79</v>
+      </c>
+      <c r="B96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>56</v>
+      </c>
+      <c r="B97" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>56</v>
+      </c>
+      <c r="B98" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>56</v>
+      </c>
+      <c r="B99" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>56</v>
+      </c>
+      <c r="B100" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>83</v>
+      </c>
+      <c r="B101" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>84</v>
+      </c>
+      <c r="B102" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>85</v>
+      </c>
+      <c r="B103" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>86</v>
+      </c>
+      <c r="B104" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>86</v>
+      </c>
+      <c r="B105" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>86</v>
+      </c>
+      <c r="B106" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>86</v>
+      </c>
+      <c r="B107" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>86</v>
+      </c>
+      <c r="B108" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>86</v>
+      </c>
+      <c r="B109" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>86</v>
+      </c>
+      <c r="B110" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>87</v>
+      </c>
+      <c r="B111" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>88</v>
+      </c>
+      <c r="B112" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>89</v>
+      </c>
+      <c r="B113" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>70</v>
+      </c>
+      <c r="B114" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>70</v>
+      </c>
+      <c r="B115" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>70</v>
+      </c>
+      <c r="B116" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>70</v>
+      </c>
+      <c r="B117" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>70</v>
+      </c>
+      <c r="B118" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>70</v>
+      </c>
+      <c r="B119" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>87</v>
+      </c>
+      <c r="B120" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>64</v>
+      </c>
+      <c r="B121" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>90</v>
+      </c>
+      <c r="B122" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>90</v>
+      </c>
+      <c r="B123" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>90</v>
+      </c>
+      <c r="B124" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>90</v>
+      </c>
+      <c r="B125" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>91</v>
+      </c>
+      <c r="B126" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>92</v>
+      </c>
+      <c r="B127" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>93</v>
+      </c>
+      <c r="B128" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>93</v>
+      </c>
+      <c r="B129" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>93</v>
+      </c>
+      <c r="B130" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>93</v>
+      </c>
+      <c r="B131" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>87</v>
+      </c>
+      <c r="B132" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>94</v>
+      </c>
+      <c r="B133" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>94</v>
+      </c>
+      <c r="B134" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>94</v>
+      </c>
+      <c r="B135" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>94</v>
+      </c>
+      <c r="B136" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>95</v>
+      </c>
+      <c r="B137" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>96</v>
+      </c>
+      <c r="B138" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>96</v>
+      </c>
+      <c r="B139" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>96</v>
+      </c>
+      <c r="B140" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>96</v>
+      </c>
+      <c r="B141" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>96</v>
+      </c>
+      <c r="B142" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>73</v>
+      </c>
+      <c r="B143" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>73</v>
+      </c>
+      <c r="B144" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>97</v>
+      </c>
+      <c r="B145" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>97</v>
+      </c>
+      <c r="B146" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>97</v>
+      </c>
+      <c r="B147" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>97</v>
+      </c>
+      <c r="B148" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>97</v>
+      </c>
+      <c r="B149" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>97</v>
+      </c>
+      <c r="B150" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>98</v>
+      </c>
+      <c r="B151" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>99</v>
+      </c>
+      <c r="B152" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>100</v>
+      </c>
+      <c r="B153" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>101</v>
+      </c>
+      <c r="B154" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>101</v>
+      </c>
+      <c r="B155" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>101</v>
+      </c>
+      <c r="B156" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>101</v>
+      </c>
+      <c r="B157" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>101</v>
+      </c>
+      <c r="B158" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>68</v>
+      </c>
+      <c r="B159" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>102</v>
+      </c>
+      <c r="B160" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>103</v>
+      </c>
+      <c r="B161" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>103</v>
+      </c>
+      <c r="B162" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>103</v>
+      </c>
+      <c r="B163" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>103</v>
+      </c>
+      <c r="B164" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>103</v>
+      </c>
+      <c r="B165" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>103</v>
+      </c>
+      <c r="B166" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>103</v>
+      </c>
+      <c r="B167" t="s">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
-        <v>74</v>
-      </c>
-      <c r="C63" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64">
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>103</v>
+      </c>
+      <c r="B168" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>103</v>
+      </c>
+      <c r="B169" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>103</v>
+      </c>
+      <c r="B170" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>103</v>
+      </c>
+      <c r="B171" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>104</v>
+      </c>
+      <c r="B172" t="s">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
-        <v>74</v>
-      </c>
-      <c r="C64" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>75</v>
-      </c>
-      <c r="C65" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>75</v>
-      </c>
-      <c r="C66" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>75</v>
-      </c>
-      <c r="C67" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>75</v>
-      </c>
-      <c r="C68" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>75</v>
-      </c>
-      <c r="C69" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>75</v>
-      </c>
-      <c r="C70" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>75</v>
-      </c>
-      <c r="C71" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>55</v>
-      </c>
-      <c r="C72" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
-        <v>76</v>
-      </c>
-      <c r="C73" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
-        <v>77</v>
-      </c>
-      <c r="C74" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75" t="s">
-        <v>78</v>
-      </c>
-      <c r="C75" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76" t="s">
-        <v>79</v>
-      </c>
-      <c r="C76" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77" t="s">
-        <v>79</v>
-      </c>
-      <c r="C77" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78" t="s">
-        <v>79</v>
-      </c>
-      <c r="C78" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79" t="s">
-        <v>79</v>
-      </c>
-      <c r="C79" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80" t="s">
-        <v>79</v>
-      </c>
-      <c r="C80" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81" t="s">
-        <v>79</v>
-      </c>
-      <c r="C81" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="B82" t="s">
-        <v>79</v>
-      </c>
-      <c r="C82" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83" t="s">
-        <v>79</v>
-      </c>
-      <c r="C83" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="B84" t="s">
-        <v>80</v>
-      </c>
-      <c r="C84" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>84</v>
-      </c>
-      <c r="B85" t="s">
-        <v>80</v>
-      </c>
-      <c r="C85" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>85</v>
-      </c>
-      <c r="B86" t="s">
-        <v>43</v>
-      </c>
-      <c r="C86" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>86</v>
-      </c>
-      <c r="B87" t="s">
-        <v>43</v>
-      </c>
-      <c r="C87" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>87</v>
-      </c>
-      <c r="B88" t="s">
-        <v>43</v>
-      </c>
-      <c r="C88" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>88</v>
-      </c>
-      <c r="B89" t="s">
-        <v>43</v>
-      </c>
-      <c r="C89" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>89</v>
-      </c>
-      <c r="B90" t="s">
-        <v>43</v>
-      </c>
-      <c r="C90" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>90</v>
-      </c>
-      <c r="B91" t="s">
-        <v>43</v>
-      </c>
-      <c r="C91" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>91</v>
-      </c>
-      <c r="B92" t="s">
-        <v>81</v>
-      </c>
-      <c r="C92" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>92</v>
-      </c>
-      <c r="B93" t="s">
-        <v>80</v>
-      </c>
-      <c r="C93" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>93</v>
-      </c>
-      <c r="B94" t="s">
-        <v>82</v>
-      </c>
-      <c r="C94" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>94</v>
-      </c>
-      <c r="B95" t="s">
-        <v>83</v>
-      </c>
-      <c r="C95" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>95</v>
-      </c>
-      <c r="B96" t="s">
-        <v>80</v>
-      </c>
-      <c r="C96" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>96</v>
-      </c>
-      <c r="B97" t="s">
-        <v>56</v>
-      </c>
-      <c r="C97" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>97</v>
-      </c>
-      <c r="B98" t="s">
-        <v>56</v>
-      </c>
-      <c r="C98" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>98</v>
-      </c>
-      <c r="B99" t="s">
-        <v>56</v>
-      </c>
-      <c r="C99" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>99</v>
-      </c>
-      <c r="B100" t="s">
-        <v>56</v>
-      </c>
-      <c r="C100" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>100</v>
-      </c>
-      <c r="B101" t="s">
-        <v>84</v>
-      </c>
-      <c r="C101" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>101</v>
-      </c>
-      <c r="B102" t="s">
-        <v>85</v>
-      </c>
-      <c r="C102" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>102</v>
-      </c>
-      <c r="B103" t="s">
-        <v>86</v>
-      </c>
-      <c r="C103" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>103</v>
-      </c>
-      <c r="B104" t="s">
-        <v>87</v>
-      </c>
-      <c r="C104" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>104</v>
-      </c>
-      <c r="B105" t="s">
-        <v>87</v>
-      </c>
-      <c r="C105" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>105</v>
-      </c>
-      <c r="B106" t="s">
-        <v>87</v>
-      </c>
-      <c r="C106" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>106</v>
-      </c>
-      <c r="B107" t="s">
-        <v>87</v>
-      </c>
-      <c r="C107" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>107</v>
-      </c>
-      <c r="B108" t="s">
-        <v>87</v>
-      </c>
-      <c r="C108" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>108</v>
-      </c>
-      <c r="B109" t="s">
-        <v>87</v>
-      </c>
-      <c r="C109" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>109</v>
-      </c>
-      <c r="B110" t="s">
-        <v>87</v>
-      </c>
-      <c r="C110" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>110</v>
-      </c>
-      <c r="B111" t="s">
-        <v>88</v>
-      </c>
-      <c r="C111" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>111</v>
-      </c>
-      <c r="B112" t="s">
-        <v>89</v>
-      </c>
-      <c r="C112" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>112</v>
-      </c>
-      <c r="B113" t="s">
-        <v>90</v>
-      </c>
-      <c r="C113" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>113</v>
-      </c>
-      <c r="B114" t="s">
-        <v>71</v>
-      </c>
-      <c r="C114" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>114</v>
-      </c>
-      <c r="B115" t="s">
-        <v>71</v>
-      </c>
-      <c r="C115" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>115</v>
-      </c>
-      <c r="B116" t="s">
-        <v>71</v>
-      </c>
-      <c r="C116" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>116</v>
-      </c>
-      <c r="B117" t="s">
-        <v>71</v>
-      </c>
-      <c r="C117" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>117</v>
-      </c>
-      <c r="B118" t="s">
-        <v>71</v>
-      </c>
-      <c r="C118" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>118</v>
-      </c>
-      <c r="B119" t="s">
-        <v>71</v>
-      </c>
-      <c r="C119" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>119</v>
-      </c>
-      <c r="B120" t="s">
-        <v>88</v>
-      </c>
-      <c r="C120" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>120</v>
-      </c>
-      <c r="B121" t="s">
-        <v>65</v>
-      </c>
-      <c r="C121" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>121</v>
-      </c>
-      <c r="B122" t="s">
-        <v>91</v>
-      </c>
-      <c r="C122" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>122</v>
-      </c>
-      <c r="B123" t="s">
-        <v>91</v>
-      </c>
-      <c r="C123" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>123</v>
-      </c>
-      <c r="B124" t="s">
-        <v>91</v>
-      </c>
-      <c r="C124" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>124</v>
-      </c>
-      <c r="B125" t="s">
-        <v>91</v>
-      </c>
-      <c r="C125" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>125</v>
-      </c>
-      <c r="B126" t="s">
-        <v>92</v>
-      </c>
-      <c r="C126" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>126</v>
-      </c>
-      <c r="B127" t="s">
-        <v>93</v>
-      </c>
-      <c r="C127" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>127</v>
-      </c>
-      <c r="B128" t="s">
-        <v>94</v>
-      </c>
-      <c r="C128" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>128</v>
-      </c>
-      <c r="B129" t="s">
-        <v>94</v>
-      </c>
-      <c r="C129" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>129</v>
-      </c>
-      <c r="B130" t="s">
-        <v>94</v>
-      </c>
-      <c r="C130" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>130</v>
-      </c>
-      <c r="B131" t="s">
-        <v>94</v>
-      </c>
-      <c r="C131" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>131</v>
-      </c>
-      <c r="B132" t="s">
-        <v>88</v>
-      </c>
-      <c r="C132" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>132</v>
-      </c>
-      <c r="B133" t="s">
-        <v>95</v>
-      </c>
-      <c r="C133" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>133</v>
-      </c>
-      <c r="B134" t="s">
-        <v>95</v>
-      </c>
-      <c r="C134" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>134</v>
-      </c>
-      <c r="B135" t="s">
-        <v>95</v>
-      </c>
-      <c r="C135" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>135</v>
-      </c>
-      <c r="B136" t="s">
-        <v>95</v>
-      </c>
-      <c r="C136" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>136</v>
-      </c>
-      <c r="B137" t="s">
-        <v>96</v>
-      </c>
-      <c r="C137" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>137</v>
-      </c>
-      <c r="B138" t="s">
-        <v>97</v>
-      </c>
-      <c r="C138" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>138</v>
-      </c>
-      <c r="B139" t="s">
-        <v>97</v>
-      </c>
-      <c r="C139" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>139</v>
-      </c>
-      <c r="B140" t="s">
-        <v>97</v>
-      </c>
-      <c r="C140" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>140</v>
-      </c>
-      <c r="B141" t="s">
-        <v>97</v>
-      </c>
-      <c r="C141" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>141</v>
-      </c>
-      <c r="B142" t="s">
-        <v>97</v>
-      </c>
-      <c r="C142" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>142</v>
-      </c>
-      <c r="B143" t="s">
-        <v>74</v>
-      </c>
-      <c r="C143" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>143</v>
-      </c>
-      <c r="B144" t="s">
-        <v>74</v>
-      </c>
-      <c r="C144" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>144</v>
-      </c>
-      <c r="B145" t="s">
-        <v>98</v>
-      </c>
-      <c r="C145" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>145</v>
-      </c>
-      <c r="B146" t="s">
-        <v>98</v>
-      </c>
-      <c r="C146" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>146</v>
-      </c>
-      <c r="B147" t="s">
-        <v>98</v>
-      </c>
-      <c r="C147" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>147</v>
-      </c>
-      <c r="B148" t="s">
-        <v>98</v>
-      </c>
-      <c r="C148" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>148</v>
-      </c>
-      <c r="B149" t="s">
-        <v>98</v>
-      </c>
-      <c r="C149" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>149</v>
-      </c>
-      <c r="B150" t="s">
-        <v>98</v>
-      </c>
-      <c r="C150" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>150</v>
-      </c>
-      <c r="B151" t="s">
-        <v>99</v>
-      </c>
-      <c r="C151" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>151</v>
-      </c>
-      <c r="B152" t="s">
-        <v>100</v>
-      </c>
-      <c r="C152" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>152</v>
-      </c>
-      <c r="B153" t="s">
-        <v>101</v>
-      </c>
-      <c r="C153" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>153</v>
-      </c>
-      <c r="B154" t="s">
-        <v>102</v>
-      </c>
-      <c r="C154" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>154</v>
-      </c>
-      <c r="B155" t="s">
-        <v>102</v>
-      </c>
-      <c r="C155" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>155</v>
-      </c>
-      <c r="B156" t="s">
-        <v>102</v>
-      </c>
-      <c r="C156" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>156</v>
-      </c>
-      <c r="B157" t="s">
-        <v>102</v>
-      </c>
-      <c r="C157" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>157</v>
-      </c>
-      <c r="B158" t="s">
-        <v>102</v>
-      </c>
-      <c r="C158" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>158</v>
-      </c>
-      <c r="B159" t="s">
-        <v>69</v>
-      </c>
-      <c r="C159" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>159</v>
-      </c>
-      <c r="B160" t="s">
-        <v>103</v>
-      </c>
-      <c r="C160" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>160</v>
-      </c>
-      <c r="B161" t="s">
-        <v>104</v>
-      </c>
-      <c r="C161" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>161</v>
-      </c>
-      <c r="B162" t="s">
-        <v>104</v>
-      </c>
-      <c r="C162" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>162</v>
-      </c>
-      <c r="B163" t="s">
-        <v>104</v>
-      </c>
-      <c r="C163" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>163</v>
-      </c>
-      <c r="B164" t="s">
-        <v>104</v>
-      </c>
-      <c r="C164" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>164</v>
-      </c>
-      <c r="B165" t="s">
-        <v>104</v>
-      </c>
-      <c r="C165" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>165</v>
-      </c>
-      <c r="B166" t="s">
-        <v>104</v>
-      </c>
-      <c r="C166" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>166</v>
-      </c>
-      <c r="B167" t="s">
-        <v>104</v>
-      </c>
-      <c r="C167" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>167</v>
-      </c>
-      <c r="B168" t="s">
-        <v>104</v>
-      </c>
-      <c r="C168" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>168</v>
-      </c>
-      <c r="B169" t="s">
-        <v>104</v>
-      </c>
-      <c r="C169" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>169</v>
-      </c>
-      <c r="B170" t="s">
-        <v>104</v>
-      </c>
-      <c r="C170" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>170</v>
-      </c>
-      <c r="B171" t="s">
-        <v>104</v>
-      </c>
-      <c r="C171" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>171</v>
-      </c>
-      <c r="B172" t="s">
-        <v>105</v>
-      </c>
-      <c r="C172" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" spans="1:3" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" spans="1:3" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>64</v>
-      </c>
-    </row>
+    </row>
+    <row r="173" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" spans="1:2" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" spans="1:2" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="177" ht="63.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="178" ht="63.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -8304,396 +7767,396 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B1" t="s">
         <v>402</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>403</v>
-      </c>
-      <c r="C1" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B2" t="s">
         <v>405</v>
-      </c>
-      <c r="B2" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>406</v>
+      </c>
+      <c r="B3" t="s">
         <v>407</v>
-      </c>
-      <c r="B3" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B4" t="s">
         <v>409</v>
-      </c>
-      <c r="B4" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>410</v>
+      </c>
+      <c r="B5" t="s">
         <v>411</v>
-      </c>
-      <c r="B5" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>412</v>
+      </c>
+      <c r="B6" t="s">
         <v>413</v>
-      </c>
-      <c r="B6" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B7" t="s">
+        <v>414</v>
+      </c>
+      <c r="C7" t="s">
         <v>415</v>
-      </c>
-      <c r="C7" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>417</v>
+      </c>
+      <c r="B9" t="s">
         <v>418</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>419</v>
-      </c>
-      <c r="C9" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>401</v>
+      </c>
+      <c r="B11" t="s">
         <v>402</v>
       </c>
-      <c r="B11" t="s">
-        <v>403</v>
-      </c>
       <c r="C11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>422</v>
+      </c>
+      <c r="B12" t="s">
         <v>423</v>
-      </c>
-      <c r="B12" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>424</v>
+      </c>
+      <c r="B13" t="s">
         <v>425</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>426</v>
-      </c>
-      <c r="C13" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>427</v>
+      </c>
+      <c r="B14" t="s">
         <v>428</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>429</v>
-      </c>
-      <c r="C14" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B15" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>431</v>
+      </c>
+      <c r="B16" t="s">
         <v>432</v>
-      </c>
-      <c r="B16" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>433</v>
+      </c>
+      <c r="B17" t="s">
+        <v>418</v>
+      </c>
+      <c r="C17" t="s">
         <v>434</v>
-      </c>
-      <c r="B17" t="s">
-        <v>419</v>
-      </c>
-      <c r="C17" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>435</v>
+      </c>
+      <c r="B18" t="s">
         <v>436</v>
-      </c>
-      <c r="B18" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C19" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>438</v>
+      </c>
+      <c r="B20" t="s">
         <v>439</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>440</v>
-      </c>
-      <c r="C20" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>441</v>
+      </c>
+      <c r="B21" t="s">
+        <v>401</v>
+      </c>
+      <c r="C21" t="s">
         <v>442</v>
       </c>
-      <c r="B21" t="s">
-        <v>402</v>
-      </c>
-      <c r="C21" t="s">
-        <v>443</v>
-      </c>
       <c r="D21" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>443</v>
+      </c>
+      <c r="B22" t="s">
         <v>444</v>
       </c>
-      <c r="B22" t="s">
-        <v>445</v>
-      </c>
       <c r="C22" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>445</v>
+      </c>
+      <c r="B23" t="s">
         <v>446</v>
-      </c>
-      <c r="B23" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>447</v>
+      </c>
+      <c r="B24" t="s">
         <v>448</v>
-      </c>
-      <c r="B24" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>449</v>
+      </c>
+      <c r="B25" t="s">
         <v>450</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>451</v>
-      </c>
-      <c r="C25" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>452</v>
+      </c>
+      <c r="B26" t="s">
+        <v>402</v>
+      </c>
+      <c r="C26" t="s">
         <v>453</v>
-      </c>
-      <c r="B26" t="s">
-        <v>403</v>
-      </c>
-      <c r="C26" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B27" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B28" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>424</v>
+      </c>
+      <c r="B29" t="s">
         <v>425</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>426</v>
-      </c>
-      <c r="C29" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B30" t="s">
+        <v>456</v>
+      </c>
+      <c r="C30" t="s">
         <v>457</v>
-      </c>
-      <c r="C30" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B31" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C31" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B32" t="s">
+        <v>459</v>
+      </c>
+      <c r="C32" t="s">
         <v>460</v>
-      </c>
-      <c r="C32" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>461</v>
+      </c>
+      <c r="B33" t="s">
         <v>462</v>
-      </c>
-      <c r="B33" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B34" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C34" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B35" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B36" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C36" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B37" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C37" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>465</v>
+      </c>
+      <c r="B38" t="s">
         <v>466</v>
-      </c>
-      <c r="B38" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B39" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>468</v>
+      </c>
+      <c r="B40" t="s">
         <v>469</v>
-      </c>
-      <c r="B40" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B41" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -8705,7 +8168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2447870E-3B43-443F-B6F4-337D4E529176}">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -8718,559 +8181,559 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B2" t="s">
         <v>473</v>
-      </c>
-      <c r="B2" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>412</v>
+      </c>
+      <c r="B5" t="s">
         <v>413</v>
-      </c>
-      <c r="B5" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B7" t="s">
         <v>432</v>
-      </c>
-      <c r="B7" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>480</v>
+      </c>
+      <c r="B13" t="s">
         <v>481</v>
-      </c>
-      <c r="B13" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>482</v>
+      </c>
+      <c r="B14" t="s">
         <v>483</v>
-      </c>
-      <c r="B14" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B15" t="s">
+        <v>456</v>
+      </c>
+      <c r="C15" t="s">
         <v>457</v>
-      </c>
-      <c r="C15" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>484</v>
+      </c>
+      <c r="B16" t="s">
         <v>485</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>486</v>
-      </c>
-      <c r="C16" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>487</v>
+      </c>
+      <c r="B17" t="s">
         <v>488</v>
-      </c>
-      <c r="B17" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B18" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>490</v>
+      </c>
+      <c r="B19" t="s">
+        <v>405</v>
+      </c>
+      <c r="C19" t="s">
         <v>491</v>
-      </c>
-      <c r="B19" t="s">
-        <v>406</v>
-      </c>
-      <c r="C19" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B20" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B21" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C21" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>406</v>
+      </c>
+      <c r="B22" t="s">
         <v>407</v>
-      </c>
-      <c r="B22" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B23" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B24" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C24" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B25" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C25" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>495</v>
+      </c>
+      <c r="B26" t="s">
         <v>496</v>
-      </c>
-      <c r="B26" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>401</v>
+      </c>
+      <c r="B27" t="s">
         <v>402</v>
       </c>
-      <c r="B27" t="s">
-        <v>403</v>
-      </c>
       <c r="C27" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B28" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C28" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>498</v>
+      </c>
+      <c r="B29" t="s">
         <v>499</v>
-      </c>
-      <c r="B29" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B30" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B31" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C31" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B32" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C32" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C33" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>401</v>
+      </c>
+      <c r="B34" t="s">
         <v>402</v>
       </c>
-      <c r="B34" t="s">
-        <v>403</v>
-      </c>
       <c r="C34" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B35" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B36" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B37" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C37" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>401</v>
+      </c>
+      <c r="B38" t="s">
         <v>402</v>
       </c>
-      <c r="B38" t="s">
-        <v>403</v>
-      </c>
       <c r="C38" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B39" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C39" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B40" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B41" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C41" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B42" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B43" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C43" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>401</v>
+      </c>
+      <c r="B44" t="s">
         <v>402</v>
       </c>
-      <c r="B44" t="s">
-        <v>403</v>
-      </c>
       <c r="C44" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>507</v>
+      </c>
+      <c r="B45" t="s">
         <v>508</v>
-      </c>
-      <c r="B45" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B46" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C46" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D46" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B47" t="s">
+        <v>510</v>
+      </c>
+      <c r="C47" t="s">
         <v>511</v>
-      </c>
-      <c r="C47" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>482</v>
+      </c>
+      <c r="B48" t="s">
         <v>483</v>
-      </c>
-      <c r="B48" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B49" t="s">
+        <v>512</v>
+      </c>
+      <c r="C49" t="s">
+        <v>497</v>
+      </c>
+      <c r="D49" t="s">
         <v>513</v>
-      </c>
-      <c r="C49" t="s">
-        <v>498</v>
-      </c>
-      <c r="D49" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B50" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>514</v>
+      </c>
+      <c r="B51" t="s">
         <v>515</v>
-      </c>
-      <c r="B51" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B52" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C52" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B53" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B54" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>412</v>
+      </c>
+      <c r="B55" t="s">
         <v>413</v>
-      </c>
-      <c r="B55" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>517</v>
+      </c>
+      <c r="B56" t="s">
         <v>518</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>519</v>
-      </c>
-      <c r="C56" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B57" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>465</v>
+      </c>
+      <c r="B58" t="s">
         <v>466</v>
-      </c>
-      <c r="B58" t="s">
-        <v>467</v>
       </c>
     </row>
   </sheetData>
